--- a/Lecture_2/Typescript_Links_and_Learnings.xlsx
+++ b/Lecture_2/Typescript_Links_and_Learnings.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CNH Learnings\Specialized Training\Typescript_Tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\CNH Learnings\Specialized Training\Typescript_Tutorial\Lecture_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B1C62B-B442-4192-8830-F4C716AD4AD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53F3B34C-B7FA-4814-A849-67B0E46103DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1E4D81BF-2003-40E8-9380-548ED7F23907}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Sr. No</t>
   </si>
@@ -68,6 +68,15 @@
     <t>The arrow function is similar to the lambda function, which provides a shorter way to define the function inside TypeScript.        Syntax                                                                                                                                                                                           var variable = (param1: type, ...other params): return_type =&gt; {
    // code for the function
 };</t>
+  </si>
+  <si>
+    <t>https://www.typescriptlang.org/docs/handbook/dom-manipulation.html</t>
+  </si>
+  <si>
+    <t>DOM manupulation in typescript</t>
+  </si>
+  <si>
+    <t>Exploration into HTML element</t>
   </si>
 </sst>
 </file>
@@ -440,7 +449,7 @@
   <dimension ref="A1:U6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D7:D9"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -546,10 +555,18 @@
       <c r="U3" s="2"/>
     </row>
     <row r="4" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
